--- a/Resultados/Resultados PSO simple 30_05_23.xlsx
+++ b/Resultados/Resultados PSO simple 30_05_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Proyecto titulo1\PSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Proyecto titulo1\PSO\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755FAB94-F259-4B30-B4A0-22BD278361F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E8D21-DCCE-49D9-B002-BF861DAB0828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Valor funcion</t>
   </si>
   <si>
     <t>Punto de convergencia</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13184507341987656"/>
+          <c:y val="0.12928974260515089"/>
+          <c:w val="0.84788465630985321"/>
+          <c:h val="0.71592750883605116"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -387,8 +400,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CL"/>
-                  <a:t>Punto de convergencia</a:t>
+                  <a:t>Valor</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> partícula</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -507,7 +525,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CL"/>
-                  <a:t>Vallor Funcion </a:t>
+                  <a:t>Vallor Función </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1468,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,6 +1587,14 @@
         <v>2.3860000000000001</v>
       </c>
     </row>
+    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
